--- a/SDET7.xlsx
+++ b/SDET7.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22464" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:S25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Sr no</t>
   </si>
@@ -47,6 +48,57 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source </t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Tirupati</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>fivekm</t>
+  </si>
+  <si>
+    <t>Tenkm</t>
+  </si>
+  <si>
+    <t>twentykm</t>
+  </si>
+  <si>
+    <t>elevenkm</t>
+  </si>
+  <si>
+    <t>ninekm</t>
   </si>
 </sst>
 </file>
@@ -62,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -444,4 +503,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>